--- a/rkwork/development/prompt_engineering/服装行业对标IP/SW/文案匹配剪辑素材生成自动化剪辑脚本/inputData.xlsx
+++ b/rkwork/development/prompt_engineering/服装行业对标IP/SW/文案匹配剪辑素材生成自动化剪辑脚本/inputData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
   <si>
     <t>产品编号</t>
   </si>
@@ -44,31 +44,28 @@
     <t>Bh1</t>
   </si>
   <si>
-    <t>终于把速惟的羊毛开衫价格打下来了！精选优质绵羊毛，细腻柔滑。宽松版型，法式慵懒风设计，小圆领显锁骨。铁锈红超吸睛，快冲！</t>
+    <t>终于把速惟的羊毛开衫，价格打下来了！精选优质绵羊毛，细腻柔滑。宽松版型，法式慵懒风设计。小圆领显锁骨。铁锈红超吸睛，快冲！</t>
   </si>
   <si>
     <t>速惟羊毛开衫降价啦！100%绵羊毛，品质佳。法式慵懒风，宽松舒适。优雅小圆领，展露迷人锁骨。铁锈红颜色美，赶紧入手！</t>
   </si>
   <si>
-    <t>终于把速惟的羊毛开衫价格打下来了！100%绵羊毛，手感细腻柔滑。宽松版型，纽扣开衫设计，法式慵懒风，铁锈红很特别，日常休闲都能穿，快冲！</t>
+    <t>终于把速惟的羊毛开衫，价格打下来了！100%绵羊毛，手感细腻柔滑。宽松版型，纽扣开衫设计。法式慵懒风，铁锈红很特别。日常休闲都能穿，快冲！</t>
   </si>
   <si>
     <t>速惟羊毛开衫降价啦！精选优质绵羊毛，亲肤舒适。宽松自在，纽扣设计灵活多变，尽显法式慵懒。铁锈红颜色独特，满足多种场合穿搭需求，赶紧入手！</t>
   </si>
   <si>
-    <t>终于把速惟的羊毛开衫价格打下来了！100%绵羊毛，柔软亲肤，温暖舒适。小圆领露锁骨，显魅力。宽松版型，随性自在，赶紧冲！</t>
-  </si>
-  <si>
-    <t>速惟羊毛开衫价格优惠啦！精选绵羊毛，细腻柔滑。优雅小圆领，迷人锁骨现。宽松自在，下摆袖口罗纹设计，保暖又美观，快入手！</t>
-  </si>
-  <si>
-    <t>终于把速惟的羊毛开衫价格打下来了！100%绵羊毛，亲肤柔软超暖和。宽松版型，法式慵懒风设计，小圆领显锁骨，日常休闲必备，快冲！</t>
+    <t>终于把速惟的羊毛开衫，价格打下来了！100%绵羊毛，柔软亲肤，温暖舒适。小圆领露锁骨，尽显魅力。宽松版型，随性自在，赶紧冲！</t>
+  </si>
+  <si>
+    <t>终于把速惟的羊毛开衫，价格打下来了！100%绵羊毛，亲肤柔软超暖和。宽松版型，法式慵懒风设计。小圆领显锁骨，日常休闲必备，快冲！</t>
   </si>
   <si>
     <t>速惟羊毛开衫降价啦！100%绵羊毛，温暖舒适。法式慵懒风，宽松自在，小圆领露锁骨，尽显魅力。日常休闲穿它，彰显独特品味，赶紧入手！</t>
   </si>
   <si>
-    <t>终于把速惟羊毛开衫价格打下来了！100%绵羊毛，亲肤柔软超暖和。宽松版型，小圆领设计，尽显法式松弛感，铁锈红很特别，快冲！</t>
+    <t>终于把速惟羊毛开衫，价格打下来了！100%绵羊毛，亲肤柔软超暖和。宽松版型，小圆领设计，尽显法式松弛感。铁锈红很特别，快冲！</t>
   </si>
   <si>
     <t>速惟羊毛开衫降价啦！绵羊毛面料，温暖舒适。宽松自在，小圆领显锁骨。下摆袖口罗纹设计，细节满满。铁锈红显气质，法式慵懒风，入手不亏！</t>
@@ -77,22 +74,22 @@
     <t>Bh2</t>
   </si>
   <si>
-    <t>这款速惟羊毛开衫太赞了！精选优质绵羊毛，细腻柔滑。宽松版型，法式慵懒风设计，小圆领显锁骨。铁锈红颜色独特，彰显品味，快入手！</t>
-  </si>
-  <si>
-    <t>速惟羊毛开衫，绝绝子！100%绵羊毛，品质佳。法式设计，慵懒随性。小圆领露锁骨，显魅力。铁锈红很特别，宽松舒适，爱了！</t>
-  </si>
-  <si>
-    <t>这款速惟羊毛开衫太赞了！100%绵羊毛，手感好又保暖。宽松版型，纽扣开衫设计，法式慵懒风，铁锈红很特别，多种场合都能穿，快入手！</t>
-  </si>
-  <si>
-    <t>速惟羊毛开衫，绝绝子！精选优质绵羊毛，亲肤舒适。宽松自在，纽扣设计灵活多变，法式慵懒风，铁锈红显气质，爱了爱了！</t>
+    <t>这款速惟羊毛开衫太赞了！精选优质绵羊毛，细腻柔滑。宽松版型，法式慵懒风设计。小圆领显锁骨。铁锈红颜色独特，彰显品味，快入手！</t>
+  </si>
+  <si>
+    <t>速惟羊毛开衫，绝绝子！100%绵羊毛，品质佳。法式设计，慵懒随性。小圆领露锁骨，特显魅力。铁锈红眼前一亮，上身宽松舒适，爱了爱了！</t>
+  </si>
+  <si>
+    <t>这款速惟羊毛开衫太赞了！100%绵羊毛，手感好又保暖。宽松版型，纽扣开衫设计。法式慵懒风，铁锈红很特别。多种场合都能穿，快入手！</t>
+  </si>
+  <si>
+    <t>速惟羊毛开衫，绝绝子！精选优质绵羊毛，亲肤舒适。宽松自在，纽扣设计灵活多变。法式慵懒风，铁锈红显气质，爱了爱了！</t>
   </si>
   <si>
     <t>这款速惟羊毛开衫太赞了！100%绵羊毛，手感细腻柔滑。小圆领露锁骨，显魅力。宽松版型，自在舒适，赶紧入手！</t>
   </si>
   <si>
-    <t>速惟羊毛开衫，必入！精选优质绵羊毛，柔软舒适。优雅小圆领，迷人锁骨展现。下摆袖口罗纹设计，保暖又美观。</t>
+    <t>必入一件的速惟羊毛开衫！精选优质绵羊毛，柔软舒适。优雅小圆领，迷人锁骨展现。下摆袖口罗纹设计，保暖又美观。</t>
   </si>
   <si>
     <t>这款速惟羊毛开衫太赞了！100%绵羊毛，亲肤柔软。宽松版型，自在舒适。小圆领设计，显锁骨魅力。法式慵懒风，彰显独特品味，快入手！</t>
@@ -101,19 +98,19 @@
     <t>速惟羊毛开衫，真的绝！100%绵羊毛，温暖呵护。法式慵懒设计，尽显随性魅力。优雅小圆领，展露迷人锁骨。日常休闲必备，赶紧冲！</t>
   </si>
   <si>
-    <t>这款速惟羊毛开衫太赞了！100%绵羊毛，亲肤柔软。铁锈红显气质，小圆领露锁骨，下摆袖口罗纹设计，宽松版型超随性，爱美的姐妹快入手！</t>
-  </si>
-  <si>
-    <t>速惟羊毛开衫，绝绝子！绵羊毛面料，温暖舒适。铁锈红很独特，优雅小圆领，显锁骨线条，宽松自在，下摆袖口罗纹美观又保暖，赶紧冲！</t>
+    <t>这款速惟羊毛开衫太赞了！100%绵羊毛，亲肤柔软。铁锈红显气质。小圆领露锁骨。下摆袖口罗纹设计。宽松版型超随性，爱美的姐妹快入手！</t>
+  </si>
+  <si>
+    <t>速惟羊毛开衫，绝绝子！绵羊毛面料，温暖舒适。铁锈红很独特。优雅小圆领，显锁骨线条。下摆袖口罗纹美观又保暖。宽松自在，赶紧冲！</t>
   </si>
   <si>
     <t>Bh3</t>
   </si>
   <si>
-    <t>这件真不贵啦！花普通开衫的钱买100%绵羊毛！速惟羊毛开衫，法式慵懒风，宽松舒适。特别是铁锈红，超显气质，搭运动装、休闲装都好看！</t>
-  </si>
-  <si>
-    <t>速惟羊毛开衫太值了！100%绵羊毛，品质超好。法式设计，慵懒随性，小圆领显锁骨。铁锈红颜色独特，宽松版型，运动休闲都能穿！</t>
+    <t>这件真不贵啦！花普通开衫的钱买100%绵羊毛！速惟羊毛开衫，法式慵懒风，宽松舒适。特别是铁锈红，超显气质。搭运动装、休闲装都好看！</t>
+  </si>
+  <si>
+    <t>速惟羊毛开衫太值了！100%绵羊毛，品质超好。法式设计，慵懒随性，小圆领显锁骨。铁锈红颜色独特。宽松版型，运动休闲都能穿！</t>
   </si>
   <si>
     <t>这件真不贵啦！花普通开衫的钱买100%绵羊毛的！宽松版型，自在舒适。特别是铁锈红，很显气质，日常休闲都能穿！</t>
@@ -137,13 +134,13 @@
     <t>这件真不贵！花小钱买100%绵羊毛开衫！宽松版型，自在舒适。特别是铁锈红，很显气质，日常或打网球穿都合适！</t>
   </si>
   <si>
-    <t>100%绵羊毛开衫，真的超值！法式松弛感，优雅小圆领露锁骨。下摆袖口罗纹设计，保暖又美观。铁锈红超迷人！</t>
+    <t>100%绵羊毛开衫，真的超值！法式松弛感，优雅小圆领露锁骨。下摆袖口罗纹设计，保暖又美观。铁锈红超迷人，还不来选一件！</t>
   </si>
   <si>
     <t>Bh4</t>
   </si>
   <si>
-    <t>很有法式慵懒感的速惟羊毛开衫，内搭小背心，外搭休闲裤，超好看！小圆领显锁骨，面料优质。选铁锈红，独特又迷人，喜欢的快下单！</t>
+    <t>很有法式慵懒感的，速惟羊毛开衫。内搭小背心，外搭休闲裤，超好看！小圆领显锁骨，面料优质。选铁锈红，独特又迷人，喜欢的快下单！</t>
   </si>
   <si>
     <t>速惟羊毛开衫，宽松自在，尽显随性魅力。100%绵羊毛，品质佳。优雅小圆领，法式慵懒风。铁锈红颜色美，彰显独特品味，赶紧入手！</t>
@@ -381,14 +378,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,148 +834,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1500,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1522,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1533,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1544,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1555,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1566,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -1577,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1588,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1599,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -1610,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1621,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -1632,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1643,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -1654,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -1665,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -1676,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -1687,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -1698,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -1709,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -1720,10 +1710,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1731,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
@@ -1742,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -1753,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
@@ -1764,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -1775,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -1786,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
@@ -1797,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -1808,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
@@ -1819,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
@@ -1830,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1841,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -1852,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -1863,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -1874,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -1885,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -1896,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -1907,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -1918,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -1929,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -1940,10 +1930,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1951,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
@@ -1962,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
@@ -1973,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
         <v>62</v>
@@ -1984,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -1995,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
@@ -2006,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
@@ -2017,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>66</v>
@@ -2028,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>67</v>
@@ -2039,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -2050,10 +2040,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2061,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>71</v>
@@ -2072,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
         <v>72</v>
@@ -2083,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
@@ -2094,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
@@ -2105,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
@@ -2116,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
@@ -2127,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>77</v>
@@ -2138,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>78</v>
@@ -2149,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>79</v>
@@ -2160,10 +2150,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2171,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>82</v>
@@ -2182,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>83</v>
@@ -2193,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
         <v>84</v>
@@ -2204,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
         <v>85</v>
@@ -2215,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>86</v>
@@ -2226,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
@@ -2237,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
         <v>88</v>
@@ -2248,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>89</v>
@@ -2259,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
         <v>90</v>
@@ -2270,10 +2260,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2281,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
         <v>93</v>
@@ -2292,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
         <v>94</v>
@@ -2303,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
         <v>95</v>
@@ -2314,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
         <v>96</v>
@@ -2325,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
         <v>97</v>
@@ -2336,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>98</v>
@@ -2347,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
         <v>99</v>
@@ -2358,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
         <v>100</v>
@@ -2369,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
         <v>101</v>
@@ -2380,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2391,7 +2381,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>104</v>
@@ -2402,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
         <v>105</v>
@@ -2413,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
         <v>106</v>
@@ -2424,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
         <v>107</v>
@@ -2435,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
         <v>108</v>
@@ -2446,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
         <v>109</v>
@@ -2457,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
         <v>110</v>
@@ -2468,32 +2458,18 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>3</v>
-      </c>
+    <row r="100" spans="2:3">
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
